--- a/ELO积分.xlsx
+++ b/ELO积分.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6000" yWindow="4185" windowWidth="10800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7005" yWindow="2445" windowWidth="10800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="2" t="n"/>
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="2" t="n"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="2" t="n"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1047</v>
+        <v>1060</v>
       </c>
       <c r="F5" s="1" t="n"/>
       <c r="G5" s="2" t="n"/>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="2" t="n"/>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1016</v>
+        <v>973</v>
       </c>
       <c r="F7" s="1" t="n"/>
       <c r="G7" s="2" t="n"/>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="2" t="n"/>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="2" t="n"/>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955</v>
+        <v>995</v>
       </c>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="2" t="n"/>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="2" t="n"/>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="2" t="n"/>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="2" t="n"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F15" s="1" t="n"/>
       <c r="G15" s="2" t="n"/>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="2" t="n"/>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/ELO积分.xlsx
+++ b/ELO积分.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7005" yWindow="2445" windowWidth="10800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="2" t="n"/>
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1152</v>
+        <v>1190</v>
       </c>
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="2" t="n"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="2" t="n"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1060</v>
+        <v>1017</v>
       </c>
       <c r="F5" s="1" t="n"/>
       <c r="G5" s="2" t="n"/>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1050</v>
+        <v>1017</v>
       </c>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="2" t="n"/>
@@ -482,11 +482,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973</v>
+        <v>1041</v>
       </c>
       <c r="F7" s="1" t="n"/>
       <c r="G7" s="2" t="n"/>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1009</v>
+        <v>985</v>
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="2" t="n"/>
@@ -506,11 +506,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>WE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="2" t="n"/>
@@ -518,11 +518,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WE</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="2" t="n"/>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="2" t="n"/>
